--- a/data/trans_bre/P57GLOBAL_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.5070077449060517</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.183739477281398</v>
+        <v>-1.183739477281409</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.05784018977869743</v>
@@ -649,7 +649,7 @@
         <v>0.005890766449960358</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.01519652661975606</v>
+        <v>-0.0151965266197562</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.449881775836229</v>
+        <v>-9.100471037064246</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1508175235588442</v>
+        <v>1.138527514408718</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.305229632000747</v>
+        <v>-2.417771784529735</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.39090750507091</v>
+        <v>-6.487990003413646</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1263972599326025</v>
+        <v>-0.1220425208620864</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003204729511860514</v>
+        <v>0.01580692000221749</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.02652719454329281</v>
+        <v>-0.02760686980795862</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.07923657349267388</v>
+        <v>-0.08065231062534077</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3665885663040587</v>
+        <v>0.5195975872545922</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.900387835857734</v>
+        <v>9.239248385001162</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.446598265303552</v>
+        <v>3.240082925780936</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.426911802709322</v>
+        <v>4.818537596438373</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.004270804260413683</v>
+        <v>0.007307615752047984</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1328903445683792</v>
+        <v>0.1381143801026886</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04136644951291445</v>
+        <v>0.03838877163881627</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.05959415150539435</v>
+        <v>0.06499831349380737</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8575862754950786</v>
+        <v>0.5460004118462323</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.021641240859709</v>
+        <v>4.719886749422046</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.2693921641730596</v>
+        <v>-0.3509206258265096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.20868873906783</v>
+        <v>-5.063497940106866</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01176709514966582</v>
+        <v>0.007876992962881958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07022185113211048</v>
+        <v>0.06566777510969438</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.003229716896160906</v>
+        <v>-0.003997526526092262</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06918921649196029</v>
+        <v>-0.06622976429294554</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.383876163568766</v>
+        <v>8.106437965658264</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.91874282489089</v>
+        <v>13.01444603216665</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.13726762452139</v>
+        <v>6.28633164753396</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.179413443738245</v>
+        <v>3.264578050794507</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1258494574926692</v>
+        <v>0.1216623949913942</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1934085954288544</v>
+        <v>0.1953671595891486</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07522059689415633</v>
+        <v>0.07763263727508068</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04305432241605704</v>
+        <v>0.04645842060064113</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.137246714875913</v>
+        <v>0.6454619806868757</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.554376492100627</v>
+        <v>2.872201525053219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.711552197946623</v>
+        <v>-2.430768533140575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.936944322464622</v>
+        <v>-4.300075360247015</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01493939063753554</v>
+        <v>0.008837555127076093</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03456887024485162</v>
+        <v>0.03857504602840815</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.03261846165039308</v>
+        <v>-0.02934641147091311</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06263797091404211</v>
+        <v>-0.07002964701451372</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.830793603391633</v>
+        <v>8.548188265230422</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.93061333155812</v>
+        <v>11.26271263821229</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.875573601031794</v>
+        <v>5.451146047874127</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.584974948517549</v>
+        <v>4.870056289204584</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.130629864051653</v>
+        <v>0.1252127782851169</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1582427511914902</v>
+        <v>0.1628785983210158</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06032757935960047</v>
+        <v>0.06866377290280284</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0798923056416119</v>
+        <v>0.08532170625216805</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>9.68994218393291</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6337841577106151</v>
+        <v>0.6337841577106262</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.03634700625277528</v>
@@ -949,7 +949,7 @@
         <v>0.1395369291358987</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.01164457118483591</v>
+        <v>0.01164457118483611</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.371053875508569</v>
+        <v>-8.718838251523097</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.320226111255534</v>
+        <v>-5.861551192890409</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.755739690367079</v>
+        <v>4.531507500530248</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.166259189995868</v>
+        <v>-3.980091784772327</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1271849768161959</v>
+        <v>-0.1190843075705516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.0819402061152549</v>
+        <v>-0.08896972959943714</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05114236298777968</v>
+        <v>0.06297423226836332</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07242468952778688</v>
+        <v>-0.07119559331869107</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.015328891706893</v>
+        <v>4.984279419055708</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.948839247991001</v>
+        <v>8.608008535383071</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.90523872951159</v>
+        <v>14.94401133960028</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.50001769250634</v>
+        <v>5.349218206129917</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05744951873731962</v>
+        <v>0.07161644089538709</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1391523361756496</v>
+        <v>0.1454883542471021</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2273386437864234</v>
+        <v>0.2299913442905333</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1067340782868219</v>
+        <v>0.1056800927011086</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.91421176585358</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7403289643202249</v>
+        <v>0.740328964320236</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02395957062196928</v>
@@ -1049,7 +1049,7 @@
         <v>0.03561180308298641</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.01144244654116734</v>
+        <v>0.01144244654116751</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4501077300795367</v>
+        <v>-0.6757776714902624</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.37838830963925</v>
+        <v>4.340946604116935</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.150218332484307</v>
+        <v>1.131671287519513</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.441242890157669</v>
+        <v>-1.637806716581397</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.006426923826673725</v>
+        <v>-0.009111881842103226</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06293468622770673</v>
+        <v>0.0624908629011402</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01398367455216806</v>
+        <v>0.01356331146859589</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02192817198940969</v>
+        <v>-0.02484248229830716</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.827953359819268</v>
+        <v>3.9673117392988</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.592705713591755</v>
+        <v>8.849544084170411</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.885971660150147</v>
+        <v>4.832723243986817</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.081045817831817</v>
+        <v>2.97631271935533</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05499340364774825</v>
+        <v>0.0580801989774628</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1283758180273122</v>
+        <v>0.1312345622413933</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06044617043333766</v>
+        <v>0.0594711534419366</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.04881174656177201</v>
+        <v>0.04677830891236617</v>
       </c>
     </row>
     <row r="19">
